--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_34.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3289210.135373114</v>
+        <v>3286192.544972178</v>
       </c>
     </row>
     <row r="7">
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>22.31124795984768</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>270.6226856612333</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>105.9929741495798</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>4.977754783587348</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>212.1370054753146</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>315.0228819490326</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>89.91576491595717</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>359.0759512913589</v>
       </c>
       <c r="H8" t="n">
-        <v>156.0582739785057</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>13.41006015825278</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>149.3670264274403</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>32.25681747480627</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,13 +1819,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.2142598265031</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>53.63192682741616</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>206.8064269214858</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>215.0546805228902</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>84.75445350977022</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>122.0153542106075</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>64.32381826160521</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>83.00897640486009</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2764,10 +2764,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>95.33113285203598</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.18952392706301</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>24.30197918502513</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,16 +3187,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>27.27099904745618</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>45.21952718910637</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>30.89505924232687</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>136.0130338575996</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>254.4736925192387</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.765426656859803</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4034,13 +4034,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.8420745176935</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>71.08244508688483</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2674.612476917366</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2420.850691555458</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2089.787804211887</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.919485916526</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C4" t="n">
-        <v>477.919485916526</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>477.919485916526</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>330.0063923341329</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>330.0063923341329</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>161.0065920724653</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>466.3758425937212</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.919485916526</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1779.266657962621</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1426.498002692507</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1426.498002692507</v>
+        <v>2323.915470287066</v>
       </c>
       <c r="Y5" t="n">
-        <v>1036.358670716696</v>
+        <v>2323.915470287066</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4665,28 +4665,28 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W7" t="n">
-        <v>637.3049792408209</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>637.3049792408209</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2307.009759042411</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C8" t="n">
-        <v>1938.047242101999</v>
+        <v>1513.092286283102</v>
       </c>
       <c r="D8" t="n">
-        <v>1579.781543495249</v>
+        <v>1154.826587676352</v>
       </c>
       <c r="E8" t="n">
-        <v>1193.993290897004</v>
+        <v>1154.826587676352</v>
       </c>
       <c r="F8" t="n">
-        <v>783.0073861073968</v>
+        <v>743.8406828867444</v>
       </c>
       <c r="G8" t="n">
-        <v>365.0435780055836</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>532.935004064828</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>532.935004064828</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>382.8183646524923</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>382.8183646524923</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>714.5834688950678</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>714.5834688950678</v>
       </c>
       <c r="U10" t="n">
-        <v>99.59950625323012</v>
+        <v>714.5834688950678</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>714.5834688950678</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>714.5834688950678</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>714.5834688950678</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>714.5834688950678</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5030,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,19 +5039,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5124,19 +5124,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376.9270045185177</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C13" t="n">
-        <v>376.9270045185177</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>376.9270045185177</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>813.2599575546443</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>558.5754693487575</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>558.5754693487575</v>
+        <v>1211.64913843807</v>
       </c>
       <c r="X13" t="n">
-        <v>558.5754693487575</v>
+        <v>983.6595875400524</v>
       </c>
       <c r="Y13" t="n">
-        <v>558.5754693487575</v>
+        <v>762.8670083965222</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5318,10 +5318,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1236.836466556557</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>2041.248044820708</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>964.135741824786</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>964.135741824786</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>675.0304288687223</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5510,46 +5510,46 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>1099.417155020477</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1406.737288300439</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1133.747493573244</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U19" t="n">
-        <v>1133.747493573244</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>1133.747493573244</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>844.3303235362831</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>616.3407726382658</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="20">
@@ -5732,67 +5732,67 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>3128.721707800141</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>3436.041841080103</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>3765.904468744135</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>4045.444533962832</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>879.2482765610114</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C22" t="n">
-        <v>710.3120936331045</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1281.689320534781</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>1281.689320534781</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W22" t="n">
-        <v>1281.689320534781</v>
+        <v>989.6002861621822</v>
       </c>
       <c r="X22" t="n">
-        <v>1281.689320534781</v>
+        <v>761.6107352641649</v>
       </c>
       <c r="Y22" t="n">
-        <v>1060.896741391251</v>
+        <v>540.8181561206347</v>
       </c>
     </row>
     <row r="23">
@@ -5969,43 +5969,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C25" t="n">
-        <v>542.438140992646</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D25" t="n">
-        <v>542.438140992646</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E25" t="n">
-        <v>394.5250474102529</v>
+        <v>441.900558318119</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>441.900558318119</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>273.7252366379396</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6175,22 +6175,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y25" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,10 +6224,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6239,7 +6239,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>731.6365520183392</v>
+        <v>499.657872506522</v>
       </c>
       <c r="C28" t="n">
-        <v>562.7003690904323</v>
+        <v>499.657872506522</v>
       </c>
       <c r="D28" t="n">
-        <v>562.7003690904323</v>
+        <v>499.657872506522</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F28" t="n">
         <v>415.8104215925219</v>
@@ -6412,22 +6412,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1202.70218688554</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1202.70218688554</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>1202.70218688554</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W28" t="n">
-        <v>913.2850168485789</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X28" t="n">
-        <v>913.2850168485789</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="Y28" t="n">
-        <v>913.2850168485789</v>
+        <v>499.657872506522</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,34 +6458,34 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3774.981524342492</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C31" t="n">
-        <v>3606.045341414585</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>3606.045341414585</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>3606.045341414585</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4466.839738353223</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>4466.839738353223</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W31" t="n">
-        <v>4177.422568316262</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X31" t="n">
-        <v>4177.422568316262</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y31" t="n">
-        <v>3956.629989172732</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6692,25 +6692,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6786,19 +6786,19 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1236.836466556557</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>2041.248044820708</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.788110039405</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2507.25999687553</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028584</v>
@@ -6880,28 +6880,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1098.712528333286</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>809.2953582963255</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>781.7488946120263</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1236.836466556557</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>392.0201325405893</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C37" t="n">
-        <v>392.0201325405893</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.239980467896</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U37" t="n">
-        <v>1164.111341681454</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V37" t="n">
-        <v>909.4268534755672</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W37" t="n">
-        <v>620.0096834386067</v>
+        <v>643.7999724905393</v>
       </c>
       <c r="X37" t="n">
-        <v>392.0201325405893</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y37" t="n">
-        <v>392.0201325405893</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,13 +7157,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,28 +7172,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7214,10 +7214,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>549.6692635248398</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C40" t="n">
-        <v>549.6692635248398</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6692635248398</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7360,22 +7360,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>1241.872136700086</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="W40" t="n">
-        <v>731.3177283550796</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="X40" t="n">
-        <v>731.3177283550796</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="Y40" t="n">
-        <v>731.3177283550796</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7430,13 +7430,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>415.509052552801</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C43" t="n">
-        <v>415.509052552801</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
         <v>265.3924131404652</v>
@@ -7558,13 +7558,13 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7573,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324574</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W43" t="n">
-        <v>420.3226148324574</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X43" t="n">
-        <v>420.3226148324574</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y43" t="n">
-        <v>420.3226148324574</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="44">
@@ -7643,46 +7643,46 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7810,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>933.2366688293934</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>643.8194987924328</v>
+        <v>1172.431332769303</v>
       </c>
       <c r="X46" t="n">
-        <v>415.8299478944155</v>
+        <v>1172.431332769303</v>
       </c>
       <c r="Y46" t="n">
-        <v>195.0373687508853</v>
+        <v>1172.431332769303</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>104.6241510367944</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>398.9629823660891</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>180.0237016735883</v>
       </c>
       <c r="M18" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298392</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,25 +9483,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>360.5026862907266</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>124.3400780863226</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>124.3400780863231</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10434,22 +10434,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>398.9629823660891</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>29.47535963978233</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>398.9629823660891</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>73.53204524670008</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>136.870325971137</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>254.2661808617847</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.3087385100879487</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>167.9156342309731</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>79.43092547709159</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24175,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>71.18267187568719</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>201.7685448268208</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>45.23146688802034</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>84.59001010593092</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>63.42498624170908</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>126.2164282063533</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,10 +24847,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>204.0478284715143</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>227.8356641388029</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,16 +25075,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>198.438656341581</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25318,16 +25318,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25357,22 +25357,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>176.3280338692829</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>255.6279390942641</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>10.4209287889696</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25600,10 +25600,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>31.76365987933866</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>175.0665535250775</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.98990566424379</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>215.4405532497062</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>718110.1834587392</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>718110.1834587392</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587392</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541044</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="F2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="G2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="H2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="I2" t="n">
         <v>664749.4015541048</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="H2" t="n">
-        <v>664749.4015541045</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="J2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="K2" t="n">
-        <v>664749.4015541048</v>
-      </c>
       <c r="L2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="M2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="N2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="O2" t="n">
+        <v>664749.4015541052</v>
+      </c>
+      <c r="P2" t="n">
         <v>664749.4015541048</v>
-      </c>
-      <c r="O2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="P2" t="n">
-        <v>664749.4015541049</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143917</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-131301.1966350684</v>
+        <v>-131716.4111445355</v>
       </c>
       <c r="C6" t="n">
-        <v>458666.682579476</v>
+        <v>458251.4680700089</v>
       </c>
       <c r="D6" t="n">
-        <v>458666.6825794762</v>
+        <v>458251.4680700091</v>
       </c>
       <c r="E6" t="n">
-        <v>32890.53847418213</v>
+        <v>32556.36950705294</v>
       </c>
       <c r="F6" t="n">
-        <v>558050.5749510786</v>
+        <v>557716.4059839492</v>
       </c>
       <c r="G6" t="n">
-        <v>558050.5749510787</v>
+        <v>557716.4059839494</v>
       </c>
       <c r="H6" t="n">
-        <v>558050.5749510784</v>
+        <v>557716.4059839492</v>
       </c>
       <c r="I6" t="n">
-        <v>558050.5749510787</v>
+        <v>557716.4059839491</v>
       </c>
       <c r="J6" t="n">
-        <v>381627.3557584857</v>
+        <v>381293.1867913562</v>
       </c>
       <c r="K6" t="n">
-        <v>558050.5749510786</v>
+        <v>557716.4059839492</v>
       </c>
       <c r="L6" t="n">
-        <v>558050.5749510786</v>
+        <v>557716.405983949</v>
       </c>
       <c r="M6" t="n">
-        <v>423249.5597172414</v>
+        <v>422915.3907501119</v>
       </c>
       <c r="N6" t="n">
-        <v>558050.5749510786</v>
+        <v>557716.405983949</v>
       </c>
       <c r="O6" t="n">
-        <v>558050.5749510786</v>
+        <v>557716.4059839495</v>
       </c>
       <c r="P6" t="n">
-        <v>558050.5749510787</v>
+        <v>557716.4059839491</v>
       </c>
     </row>
   </sheetData>
@@ -26744,19 +26744,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>194.1370723978101</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>99.1084150172357</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>50.17791469221531</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>281.3041194583904</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>115.6152529948203</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>54.70821872943645</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>196.6072334206338</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>54.70821872943611</v>
       </c>
       <c r="H8" t="n">
-        <v>167.8644987858514</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>198.7354787917661</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>277.0062774114811</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,43 +32388,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,43 +32625,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>353.8818559928188</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>709.3873594165555</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>429.2814066296125</v>
       </c>
       <c r="M18" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>609.7603912467507</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>457.5346514843356</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
         <v>59.8253897034981</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
@@ -36692,7 +36692,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36923,13 +36923,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>709.3873594165555</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>117.4883924248565</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>709.3873594165555</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38102,7 +38102,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415665</v>
@@ -38111,10 +38111,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>280.6254601782248</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3286192.544972178</v>
+        <v>3361722.214636983</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>22.31124795984768</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>96.3616331761031</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>99.76268368132391</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>4.977754783587348</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>280.0353521933275</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>315.0228819490326</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>142.3766723716363</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -1114,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>230.2634979541059</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>136.1489602326002</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>359.0759512913589</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>50.43151777216863</v>
       </c>
       <c r="S10" t="n">
-        <v>13.41006015825278</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896938</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1464,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>145.6925184226057</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>32.25681747480627</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1664,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701373</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1768,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>204.1291651532053</v>
+        <v>49.61031394227993</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>206.8064269214858</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>33.35146980185942</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>101.8290650634795</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>84.75445350977022</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>64.32381826160521</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>70.02468195575993</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2719,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>83.00897640486009</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>206.7131661766337</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>62.742365442944</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>24.30197918502513</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>145.8998232290792</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3241,16 +3243,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>107.8289955161686</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>30.89505924232687</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>254.4736925192387</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>55.19910073452945</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>58.44308935822989</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>143.2925104849745</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4034,7 +4036,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>64.83031118292028</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>71.08244508688483</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2674.612476917366</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2420.850691555458</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2089.787804211887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1737.019148941773</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X2" t="n">
-        <v>1363.553390680693</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,19 +4412,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.6913543878343</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>291.042280278609</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>466.3758425937212</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>211.6913543878343</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>211.6913543878343</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>211.6913543878343</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.6913543878343</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1937.315630222944</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>743.4641313436935</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>743.4641313436935</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>357.6758787454492</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>350.7303779962457</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>336.8069739348367</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.915470287066</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y5" t="n">
-        <v>2323.915470287066</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="6">
@@ -4659,10 +4661,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>554.8972444826458</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931987</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931987</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="V7" t="n">
-        <v>286.5323736931987</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1882.054803223514</v>
+        <v>1705.877315537685</v>
       </c>
       <c r="C8" t="n">
-        <v>1513.092286283102</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.826587676352</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>1154.826587676352</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>743.8406828867444</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.654643287636</v>
+        <v>2092.477155601806</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.935004064828</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>532.935004064828</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>382.8183646524923</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>382.8183646524923</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>677.1880571638397</v>
       </c>
       <c r="S10" t="n">
-        <v>714.5834688950678</v>
+        <v>462.8996339820025</v>
       </c>
       <c r="T10" t="n">
-        <v>714.5834688950678</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="U10" t="n">
-        <v>714.5834688950678</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V10" t="n">
-        <v>714.5834688950678</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W10" t="n">
-        <v>714.5834688950678</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X10" t="n">
-        <v>714.5834688950678</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>714.5834688950678</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155913</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300486</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365129</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>581.2185435662825</v>
+        <v>506.0324822735082</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383756</v>
+        <v>506.0324822735082</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>355.9158428611725</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>355.9158428611725</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>355.9158428611725</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.64913843807</v>
+        <v>954.8146123150557</v>
       </c>
       <c r="X13" t="n">
-        <v>983.6595875400524</v>
+        <v>726.8250614170383</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.8670083965222</v>
+        <v>506.0324822735082</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,67 +5263,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>166.5495793176461</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>315.6192635197061</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>929.516333276595</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.810421592522</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.810421592522</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.810421592522</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>844.0280401274002</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>793.916611902875</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
     </row>
     <row r="17">
@@ -5492,67 +5494,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020477</v>
+        <v>534.5429807341678</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300439</v>
+        <v>1302.91112712663</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1632.773754790663</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473454</v>
+        <v>964.1357418247867</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>675.0071030383449</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>420.322614832458</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>130.9054447954974</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>130.9054447954974</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5744,58 +5746,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K21" t="n">
-        <v>2525.058920465858</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L21" t="n">
-        <v>3128.721707800141</v>
+        <v>3138.955990222748</v>
       </c>
       <c r="M21" t="n">
-        <v>3436.041841080103</v>
+        <v>3907.32413661521</v>
       </c>
       <c r="N21" t="n">
-        <v>3765.904468744135</v>
+        <v>4278.529112458863</v>
       </c>
       <c r="O21" t="n">
-        <v>4045.444533962832</v>
+        <v>4558.06917767756</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698579</v>
+        <v>4763.09165845977</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>4850.224560916993</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>359.1696912903951</v>
+        <v>982.4072870789945</v>
       </c>
       <c r="C22" t="n">
-        <v>359.1696912903951</v>
+        <v>813.4711041510876</v>
       </c>
       <c r="D22" t="n">
-        <v>359.1696912903951</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E22" t="n">
-        <v>359.1696912903951</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V22" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W22" t="n">
-        <v>989.6002861621822</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X22" t="n">
-        <v>761.6107352641649</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="Y22" t="n">
-        <v>540.8181561206347</v>
+        <v>1164.055751909234</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,67 +5974,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011336</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N24" t="n">
-        <v>1296.555866665166</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>441.900558318119</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="C25" t="n">
-        <v>441.900558318119</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="D25" t="n">
-        <v>441.900558318119</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="E25" t="n">
-        <v>441.900558318119</v>
+        <v>336.1244151159804</v>
       </c>
       <c r="F25" t="n">
-        <v>441.900558318119</v>
+        <v>336.1244151159804</v>
       </c>
       <c r="G25" t="n">
-        <v>273.7252366379396</v>
+        <v>167.949093435801</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>167.949093435801</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6175,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>441.900558318119</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y25" t="n">
-        <v>441.900558318119</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6239,7 +6241,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,13 +6305,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
         <v>1514.038914395485</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>499.657872506522</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="C28" t="n">
-        <v>499.657872506522</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="D28" t="n">
-        <v>499.657872506522</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925219</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="V28" t="n">
-        <v>1009.867621687013</v>
+        <v>4117.272866324981</v>
       </c>
       <c r="W28" t="n">
-        <v>720.4504516500522</v>
+        <v>4117.272866324981</v>
       </c>
       <c r="X28" t="n">
-        <v>720.4504516500522</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="Y28" t="n">
-        <v>499.657872506522</v>
+        <v>3889.283315426963</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6449,43 +6451,43 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6537,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2520.760934363149</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V31" t="n">
-        <v>1185.240178049213</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>895.8230080122524</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>667.8334571142351</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6701,16 +6703,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>3033.644633014775</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>3361.396285949676</v>
       </c>
       <c r="N33" t="n">
-        <v>1632.773754790662</v>
+        <v>3691.258913613709</v>
       </c>
       <c r="O33" t="n">
-        <v>2302.237516093321</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P33" t="n">
-        <v>2507.25999687553</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>4036.656874244216</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>4036.656874244216</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>4036.656874244216</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>4036.656874244216</v>
       </c>
     </row>
     <row r="35">
@@ -6917,31 +6919,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6953,7 +6955,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7014,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>415.8104215925219</v>
+        <v>823.5191931240375</v>
       </c>
       <c r="C37" t="n">
-        <v>415.8104215925219</v>
+        <v>654.5830101961307</v>
       </c>
       <c r="D37" t="n">
-        <v>415.8104215925219</v>
+        <v>504.4663707837949</v>
       </c>
       <c r="E37" t="n">
-        <v>415.8104215925219</v>
+        <v>356.5532772014018</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>356.5532772014018</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>356.5532772014018</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>206.1352687493451</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383442</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>675.0071030383442</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W37" t="n">
-        <v>643.7999724905393</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X37" t="n">
-        <v>415.8104215925219</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="Y37" t="n">
-        <v>415.8104215925219</v>
+        <v>823.5191931240375</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,13 +7159,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,28 +7174,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>339.7502131046252</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>584.7466045204288</v>
+        <v>527.8045051785809</v>
       </c>
       <c r="C40" t="n">
-        <v>415.8104215925219</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D40" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E40" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7360,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1241.872136700086</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>987.1876484941987</v>
+        <v>930.2455491523508</v>
       </c>
       <c r="W40" t="n">
-        <v>987.1876484941987</v>
+        <v>930.2455491523508</v>
       </c>
       <c r="X40" t="n">
-        <v>987.1876484941987</v>
+        <v>930.2455491523508</v>
       </c>
       <c r="Y40" t="n">
-        <v>766.3950693506686</v>
+        <v>709.4529700088207</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
@@ -7403,16 +7405,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7430,31 +7432,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>231.9043177021531</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>380.9740019042129</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>627.7391298106768</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>434.3285960683721</v>
+        <v>751.5882039991534</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V43" t="n">
-        <v>1354.17636097712</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W43" t="n">
-        <v>1064.759190940159</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="X43" t="n">
-        <v>836.769640042142</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="Y43" t="n">
-        <v>615.9770608986119</v>
+        <v>933.2366688293931</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,61 +7639,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7725,28 +7727,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>901.6749225845919</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011339</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N45" t="n">
-        <v>1771.104817265285</v>
+        <v>2041.248044820709</v>
       </c>
       <c r="O45" t="n">
-        <v>2050.644882483982</v>
+        <v>2320.788110039406</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7761,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>990.7828679390639</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C46" t="n">
-        <v>821.846685011157</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D46" t="n">
-        <v>671.7300455988212</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>523.8169520164281</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>376.9270045185178</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
@@ -7810,16 +7812,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W46" t="n">
-        <v>1172.431332769303</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X46" t="n">
-        <v>1172.431332769303</v>
+        <v>870.7229774352686</v>
       </c>
       <c r="Y46" t="n">
-        <v>1172.431332769303</v>
+        <v>649.9303982917385</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8307,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>176.7176547498435</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>28.1226370626288</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,22 +9242,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>180.0237016735883</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>94.13752431970448</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445221</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298392</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,25 +9485,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>360.5026862907266</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>41.75994765618231</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445221</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>234.4116509503169</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7151863772038</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9951,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>414.5002179180839</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>5.100663089359443</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,13 +10430,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>20.63789864135333</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>29.47535963978233</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>308.1251096272039</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>94.13752431970673</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,22 +11147,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>28.12263706263093</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>73.53204524670008</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>20.80105004077188</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>254.2661808617847</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>82.39383318338565</v>
+        <v>236.9126843943111</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>79.43092547709159</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>185.2331835502354</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>46.78640795473282</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>201.7685448268208</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>84.59001010593092</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>40.39456350851205</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>63.42498624170908</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>45.42447714719427</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>158.8051956154453</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8356641388029</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>21.34699786954866</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25312,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>2.590249948103363</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>255.6279390942641</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>31.76365987933866</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>196.9385425892985</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25786,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>108.803731740398</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25843,16 +25845,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>108.8451328388535</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>115.001668999017</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26077,19 +26079,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>215.4405532497062</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>718110.1834587392</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587392</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
   </sheetData>
@@ -26314,34 +26316,34 @@
         <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.401554105</v>
       </c>
       <c r="F2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="G2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="H2" t="n">
+        <v>664749.4015541043</v>
+      </c>
+      <c r="I2" t="n">
         <v>664749.4015541049</v>
-      </c>
-      <c r="G2" t="n">
-        <v>664749.401554105</v>
-      </c>
-      <c r="H2" t="n">
-        <v>664749.401554105</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.4015541048</v>
       </c>
       <c r="J2" t="n">
         <v>664749.4015541049</v>
       </c>
       <c r="K2" t="n">
+        <v>664749.4015541045</v>
+      </c>
+      <c r="L2" t="n">
         <v>664749.4015541049</v>
-      </c>
-      <c r="L2" t="n">
-        <v>664749.4015541046</v>
       </c>
       <c r="M2" t="n">
         <v>664749.4015541048</v>
@@ -26353,7 +26355,7 @@
         <v>664749.4015541052</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,16 +26426,16 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
+        <v>15045.66962143909</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15045.66962143898</v>
+      </c>
+      <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="F4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15045.66962143915</v>
-      </c>
       <c r="H4" t="n">
-        <v>15045.66962143917</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26445,7 +26447,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
@@ -26454,10 +26456,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26497,16 +26499,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-131716.4111445355</v>
+        <v>-131716.4111445354</v>
       </c>
       <c r="C6" t="n">
-        <v>458251.4680700089</v>
+        <v>458251.4680700091</v>
       </c>
       <c r="D6" t="n">
         <v>458251.4680700091</v>
       </c>
       <c r="E6" t="n">
-        <v>32556.36950705294</v>
+        <v>32556.36950705248</v>
       </c>
       <c r="F6" t="n">
+        <v>557716.405983949</v>
+      </c>
+      <c r="G6" t="n">
+        <v>557716.4059839488</v>
+      </c>
+      <c r="H6" t="n">
+        <v>557716.405983949</v>
+      </c>
+      <c r="I6" t="n">
         <v>557716.4059839492</v>
       </c>
-      <c r="G6" t="n">
-        <v>557716.4059839494</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>381293.1867913563</v>
+      </c>
+      <c r="K6" t="n">
+        <v>557716.4059839488</v>
+      </c>
+      <c r="L6" t="n">
         <v>557716.4059839492</v>
       </c>
-      <c r="I6" t="n">
-        <v>557716.4059839491</v>
-      </c>
-      <c r="J6" t="n">
-        <v>381293.1867913562</v>
-      </c>
-      <c r="K6" t="n">
-        <v>557716.4059839492</v>
-      </c>
-      <c r="L6" t="n">
-        <v>557716.405983949</v>
-      </c>
       <c r="M6" t="n">
-        <v>422915.3907501119</v>
+        <v>422915.3907501117</v>
       </c>
       <c r="N6" t="n">
         <v>557716.405983949</v>
       </c>
       <c r="O6" t="n">
-        <v>557716.4059839495</v>
+        <v>557716.4059839494</v>
       </c>
       <c r="P6" t="n">
-        <v>557716.4059839491</v>
+        <v>557716.4059839492</v>
       </c>
     </row>
   </sheetData>
@@ -26744,19 +26746,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26765,19 +26767,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26793,16 +26795,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499018</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>194.1370723978101</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>252.8793355413099</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>45.65836434160734</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,13 +27590,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>281.3041194583904</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>43.88742057102962</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27667,19 +27669,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>54.70821872943645</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>69.76886657838264</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>56.25950038248513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>229.1239315384073</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>54.70821872943611</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28014,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>96.23367420798922</v>
       </c>
       <c r="S10" t="n">
-        <v>198.7354787917661</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28384,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-2.387423592153937e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28852,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -30469,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565517</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,43 +32627,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34299,10 +34301,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34536,10 +34538,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,10 +34792,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,10 +35266,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377829</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.226021517838</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>70.03281601753557</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415667</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>429.2814066296125</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.363702241108</v>
+        <v>376.5012265608128</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714617</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507405</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081116</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>609.7603912467507</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>374.9545210541953</v>
       </c>
       <c r="O21" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714617</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209231</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>516.775353191425</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36671,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>724.9245949685502</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36920,19 +36922,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>93.11369587443357</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>331.0622756918195</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>117.4883924248565</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>590.488811868312</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>203.0727722009917</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>136.0477032746134</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>338.5470141130971</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>280.6254601782248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3361722.214636983</v>
+        <v>3354705.199745271</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>276.1885705564745</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>96.3616331761031</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>99.76268368132391</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>280.0353521933275</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>86.23085044538914</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>28.11374845278241</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>142.3766723716363</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>136.1489602326002</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>214.3015170458283</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>50.43151777216863</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896938</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>145.6925184226057</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>235.5975646709554</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701373</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>49.61031394227993</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670918</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>33.35146980185942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>101.8290650634795</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>70.02468195575993</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>59.40847129570712</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>206.7131661766337</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>62.742365442944</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>160.8722505808159</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3085,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>145.8998232290792</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>107.8289955161686</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,16 +3720,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>55.19910073452945</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>204.1291651532051</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>58.44308935822989</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>204.1291651532051</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>64.83031118292028</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>220.4855699130508</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>1564.581483840919</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>1206.315785234169</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>820.5275326359244</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>813.582031886721</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2368.607930856721</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>2368.607930856721</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y2" t="n">
-        <v>1978.468598880909</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="3">
@@ -4412,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>291.042280278609</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4524,16 +4524,16 @@
         <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1112.426648284105</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>743.4641313436935</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D5" t="n">
-        <v>743.4641313436935</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>357.6758787454492</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>350.7303779962457</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>336.8069739348367</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2610.047221881465</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2610.047221881465</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="X5" t="n">
-        <v>1112.426648284105</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y5" t="n">
-        <v>1112.426648284105</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>554.8972444826458</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1705.877315537685</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4837,19 +4837,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2249.476735028716</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>1918.413847685145</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>1565.645192415031</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601806</v>
+        <v>1192.179434153951</v>
       </c>
       <c r="Y8" t="n">
-        <v>2092.477155601806</v>
+        <v>802.0401021781393</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4901,7 +4901,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>677.1880571638397</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>462.8996339820025</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155913</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>462.7283310300486</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365129</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216475</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880508</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183167</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.0324822735082</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C13" t="n">
-        <v>506.0324822735082</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>355.9158428611725</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>355.9158428611725</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>355.9158428611725</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
         <v>208.7516828383384</v>
@@ -5196,19 +5196,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352016</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150557</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170383</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.0324822735082</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>166.5495793176461</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>315.6192635197061</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>929.516333276595</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1236.836466556557</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>2041.248044820708</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>415.810421592522</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>415.810421592522</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.810421592522</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119729</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119729</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333287</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>844.0280401274002</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>793.916611902875</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
@@ -5521,46 +5521,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341678</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.91112712663</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1632.773754790663</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2005.509969085867</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.2170914602859</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C19" t="n">
-        <v>97.2170914602859</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D19" t="n">
-        <v>97.2170914602859</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E19" t="n">
-        <v>97.2170914602859</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>97.2170914602859</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.2170914602859</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.2170914602859</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247867</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383449</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>420.322614832458</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W19" t="n">
-        <v>130.9054447954974</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X19" t="n">
-        <v>130.9054447954974</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.2170914602859</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5749,37 +5749,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>3138.955990222748</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>3907.32413661521</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>4278.529112458863</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>4558.06917767756</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>4763.09165845977</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>982.4072870789945</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C22" t="n">
-        <v>813.4711041510876</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D22" t="n">
-        <v>710.6134626728254</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E22" t="n">
-        <v>562.7003690904323</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>1164.055751909234</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>1164.055751909234</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>1164.055751909234</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y22" t="n">
-        <v>1164.055751909234</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,22 +5974,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514079</v>
@@ -6010,31 +6010,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.010087623274</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>484.0375086983735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>484.0375086983735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>484.0375086983735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>336.1244151159804</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>336.1244151159804</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>167.949093435801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>167.949093435801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6208,19 +6208,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,7 +6229,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6305,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3889.283315426963</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C28" t="n">
-        <v>3889.283315426963</v>
+        <v>268.760239702689</v>
       </c>
       <c r="D28" t="n">
-        <v>3889.283315426963</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E28" t="n">
-        <v>3889.283315426963</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426963</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4326.074044281177</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>4117.272866324981</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>4117.272866324981</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>3889.283315426963</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y28" t="n">
-        <v>3889.283315426963</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,34 +6448,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2315.738453580939</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2520.760934363149</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1124.545030325236</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>835.416391538794</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>1336.419047748997</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>1047.001877712037</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>819.0123268140193</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>598.2197476704891</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,34 +6685,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3033.644633014775</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3361.396285949676</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>3691.258913613709</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4036.656874244216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281177</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4326.074044281177</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>4326.074044281177</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>4036.656874244216</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4036.656874244216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>4036.656874244216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,28 +6922,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6958,31 +6958,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>823.5191931240375</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>654.5830101961307</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>504.4663707837949</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>356.5532772014018</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>356.5532772014018</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>356.5532772014018</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>206.1352687493451</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1044.311772267568</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>1044.311772267568</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.5191931240375</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>339.7502131046252</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>527.8045051785809</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V40" t="n">
-        <v>930.2455491523508</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W40" t="n">
-        <v>930.2455491523508</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>930.2455491523508</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y40" t="n">
-        <v>709.4529700088207</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7411,10 +7411,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7438,10 +7438,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7490,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>231.9043177021531</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>380.9740019042129</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>627.7391298106768</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M42" t="n">
-        <v>1396.107276203138</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>751.5882039991534</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V43" t="n">
-        <v>933.2366688293931</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W43" t="n">
-        <v>933.2366688293931</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>933.2366688293931</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>933.2366688293931</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,10 +7669,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>901.6749225845919</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1236.836466556558</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2041.248044820709</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039406</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7763,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>584.4452354807079</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C46" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7815,13 +7815,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7833,25 +7833,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>1098.712528333286</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>1098.712528333286</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="W46" t="n">
-        <v>1098.712528333286</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X46" t="n">
-        <v>870.7229774352686</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y46" t="n">
-        <v>649.9303982917385</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>176.7176547498435</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>288.4091825776743</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>28.1226370626288</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9251,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>94.13752431970448</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>41.75994765618231</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>230.7151863772038</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>414.5002179180839</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>5.100663089359443</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,16 +10436,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>20.63789864135333</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>308.1251096272039</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>52.49733361305249</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>94.13752431970673</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>28.12263706263093</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>20.80105004077188</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>50.63978772762189</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>236.9126843943111</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>140.3375291694992</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>185.2331835502354</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>46.78640795473282</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>40.39456350851205</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>89.20700172250524</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>45.42447714719427</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>158.8051956154453</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>91.26539274301206</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>21.34699786954866</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>2.590249948103363</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>196.9385425892985</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338588</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>108.803731740398</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338588</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>115.001668999017</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>31.65207341077718</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587392</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>718110.1834587392</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587392</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846408</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.5043846411</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846412</v>
-      </c>
       <c r="D2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="F2" t="n">
         <v>664749.401554105</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="H2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="I2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="J2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="K2" t="n">
+        <v>664749.4015541052</v>
+      </c>
+      <c r="L2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="M2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="N2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="O2" t="n">
         <v>664749.4015541046</v>
-      </c>
-      <c r="G2" t="n">
-        <v>664749.4015541046</v>
-      </c>
-      <c r="H2" t="n">
-        <v>664749.4015541043</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="J2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="K2" t="n">
-        <v>664749.4015541045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="M2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="N2" t="n">
-        <v>664749.4015541046</v>
-      </c>
-      <c r="O2" t="n">
-        <v>664749.4015541052</v>
       </c>
       <c r="P2" t="n">
         <v>664749.4015541049</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768967</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143898</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143905</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26447,19 +26447,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
+        <v>15045.66962143916</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15045.66962143915</v>
+      </c>
+      <c r="O4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15045.66962143915</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15045.66962143911</v>
       </c>
     </row>
     <row r="5">
@@ -26475,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-131716.4111445354</v>
+        <v>-131716.4111445357</v>
       </c>
       <c r="C6" t="n">
-        <v>458251.4680700091</v>
+        <v>458251.468070009</v>
       </c>
       <c r="D6" t="n">
-        <v>458251.4680700091</v>
+        <v>458251.468070009</v>
       </c>
       <c r="E6" t="n">
-        <v>32556.36950705248</v>
+        <v>31581.77824733089</v>
       </c>
       <c r="F6" t="n">
-        <v>557716.405983949</v>
+        <v>556741.8147242279</v>
       </c>
       <c r="G6" t="n">
-        <v>557716.4059839488</v>
+        <v>556741.8147242274</v>
       </c>
       <c r="H6" t="n">
-        <v>557716.405983949</v>
+        <v>556741.8147242276</v>
       </c>
       <c r="I6" t="n">
-        <v>557716.4059839492</v>
+        <v>556741.8147242274</v>
       </c>
       <c r="J6" t="n">
-        <v>381293.1867913563</v>
+        <v>380318.5955316344</v>
       </c>
       <c r="K6" t="n">
-        <v>557716.4059839488</v>
+        <v>556741.8147242279</v>
       </c>
       <c r="L6" t="n">
-        <v>557716.4059839492</v>
+        <v>556741.8147242274</v>
       </c>
       <c r="M6" t="n">
-        <v>422915.3907501117</v>
+        <v>421940.7994903906</v>
       </c>
       <c r="N6" t="n">
-        <v>557716.405983949</v>
+        <v>556741.8147242274</v>
       </c>
       <c r="O6" t="n">
-        <v>557716.4059839494</v>
+        <v>556741.8147242273</v>
       </c>
       <c r="P6" t="n">
-        <v>557716.4059839492</v>
+        <v>556741.8147242275</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26770,16 +26770,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,19 +26792,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370141</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>137.5955994643205</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>252.8793355413099</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>45.65836434160734</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27596,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>43.88742057102962</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>88.1848623635824</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,19 +27782,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>69.76886657838264</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>229.1239315384073</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>36.92265046246098</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>96.23367420798922</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="36">
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565522</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
         <v>0.2670576580354894</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
         <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171321</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33651,46 +33651,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,43 +33730,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,43 +33812,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N37" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,43 +33967,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N40" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34368,40 +34368,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,10 +34441,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
@@ -34453,7 +34453,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
@@ -34462,10 +34462,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34541,7 +34541,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34553,10 +34553,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34780,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
         <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490677</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>327.2930933377829</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560246</v>
+        <v>537.6668875336987</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>676.226021517838</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>525.556183571462</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507424</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>70.03281601753557</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879394</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>609.76039124675</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415667</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315249</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507424</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686871</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004665</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>376.5012265608128</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.556183571462</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507422</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>374.9545210541953</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36451,13 +36451,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>437.8086013087286</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36682,7 +36682,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>724.9245949685502</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36922,19 +36922,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>93.11369587443357</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>331.0622756918195</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>590.488811868312</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>203.0727722009917</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081117</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>136.0477032746134</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980127</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>338.5470141130971</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
@@ -38183,7 +38183,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3354705.199745271</v>
+        <v>3359644.462594304</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1885705564745</v>
+        <v>338.9143759975315</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>155.4526127311941</v>
+        <v>107.1778636154934</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>279.8211316257167</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>86.23085044538914</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,13 +1071,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>28.11374845278241</v>
+        <v>14.46389722690851</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>168.9845586665118</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>214.3015170458283</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>14.52687838733162</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>109.6650918289977</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>235.5975646709554</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>30.89505924232687</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2061,13 +2061,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>146.1854691670918</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.8026695426855</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>59.40847129570712</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>118.4898845065126</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>160.8722505808159</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151925</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>207.0920728595003</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>204.1291651532051</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056522</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3954,13 +3954,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151925</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>204.1291651532051</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>220.4855699130508</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185947</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
       <c r="C2" t="n">
-        <v>1564.581483840919</v>
+        <v>1878.515311311824</v>
       </c>
       <c r="D2" t="n">
-        <v>1206.315785234169</v>
+        <v>1520.249612705074</v>
       </c>
       <c r="E2" t="n">
-        <v>820.5275326359244</v>
+        <v>1134.461360106829</v>
       </c>
       <c r="F2" t="n">
-        <v>813.582031886721</v>
+        <v>723.4754553172218</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y2" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>619.8685159079563</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>619.8685159079563</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>391.878965009939</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>391.878965009939</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.080506218543</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781315</v>
+        <v>869.1911689453821</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>510.9254703386316</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>510.9254703386316</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>503.9799695894281</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>490.056565528019</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2610.047221881465</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2610.047221881465</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2356.285436519557</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2356.285436519557</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2356.285436519557</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>1982.819678258477</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y5" t="n">
-        <v>1592.680346282665</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>580.2158906240411</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F7" t="n">
-        <v>433.3259431261307</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G7" t="n">
-        <v>264.3261428644631</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
         <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>1018.50628101231</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>649.5437640718981</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>649.5437640718981</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>649.5437640718981</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>642.5982633226946</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6344552208815</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4837,19 +4837,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2249.476735028716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1918.413847685145</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1565.645192415031</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1192.179434153951</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.0401021781393</v>
+        <v>1018.50628101231</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5032,7 +5032,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,13 +5053,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395484</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059517</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>506.3210135240263</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>506.3210135240263</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5202,13 +5202,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>726.1584037733163</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>726.1584037733163</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>436.7412337363557</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X13" t="n">
-        <v>208.7516828383384</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.7516828383384</v>
+        <v>506.3210135240263</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>378.1030765138943</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>643.7999724905393</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5503,64 +5503,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,16 +5591,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
         <v>1247.466478653857</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>675.007103038344</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
         <v>904.3190116155888</v>
@@ -5749,55 +5749,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514079</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822454</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>437.6964226305959</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C28" t="n">
-        <v>268.760239702689</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226305959</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>437.6964226305959</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,10 +6463,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6621,16 +6621,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>1336.419047748997</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>1047.001877712037</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>819.0123268140193</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>598.2197476704891</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823768</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514066</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6858,16 +6858,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,19 +6876,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
         <v>869.3083006011506</v>
@@ -6928,28 +6928,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6961,25 +6961,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614725</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028583</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7156,31 +7156,31 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515096</v>
@@ -7198,13 +7198,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765184</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706316</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7569,43 +7569,43 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765184</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706316</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
@@ -7627,70 +7627,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
         <v>97.21709146028584</v>
@@ -7806,16 +7806,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247867</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>675.0071030383449</v>
       </c>
       <c r="V46" t="n">
-        <v>965.2084601534104</v>
+        <v>420.322614832458</v>
       </c>
       <c r="W46" t="n">
-        <v>675.7912901164498</v>
+        <v>130.9054447954974</v>
       </c>
       <c r="X46" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>288.4091825776743</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,16 +9008,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>91.23759968302122</v>
       </c>
       <c r="L15" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720718</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928303</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.409182577676</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928303</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.409182577676</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928334</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298008</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298008</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>38.95038118921462</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>50.63978772762189</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>255.6279390942641</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>140.3375291694992</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>30.9069858463516</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>89.20700172250524</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24891,13 +24891,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>91.26539274301206</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338488</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>14.45548819888893</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>82.39383318338588</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338488</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>82.39383318338588</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26076,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>31.65207341077718</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>192.3581855871777</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>718110.1834587392</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>718110.1834587392</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846411</v>
@@ -26322,13 +26322,13 @@
         <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="F2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="G2" t="n">
         <v>664749.4015541046</v>
-      </c>
-      <c r="F2" t="n">
-        <v>664749.401554105</v>
-      </c>
-      <c r="G2" t="n">
-        <v>664749.4015541048</v>
       </c>
       <c r="H2" t="n">
         <v>664749.401554105</v>
@@ -26340,19 +26340,19 @@
         <v>664749.4015541048</v>
       </c>
       <c r="K2" t="n">
-        <v>664749.4015541052</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="L2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="M2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="N2" t="n">
         <v>664749.4015541049</v>
       </c>
       <c r="O2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="P2" t="n">
         <v>664749.4015541049</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.48295464189141e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26444,22 +26444,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143916</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26475,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26530,40 +26530,40 @@
         <v>458251.468070009</v>
       </c>
       <c r="E6" t="n">
-        <v>31581.77824733089</v>
+        <v>32458.91038108103</v>
       </c>
       <c r="F6" t="n">
-        <v>556741.8147242279</v>
+        <v>557618.946857977</v>
       </c>
       <c r="G6" t="n">
-        <v>556741.8147242274</v>
+        <v>557618.9468579768</v>
       </c>
       <c r="H6" t="n">
-        <v>556741.8147242276</v>
+        <v>557618.9468579772</v>
       </c>
       <c r="I6" t="n">
-        <v>556741.8147242274</v>
+        <v>557618.946857977</v>
       </c>
       <c r="J6" t="n">
-        <v>380318.5955316344</v>
+        <v>381195.727665384</v>
       </c>
       <c r="K6" t="n">
-        <v>556741.8147242279</v>
+        <v>557618.9468579766</v>
       </c>
       <c r="L6" t="n">
-        <v>556741.8147242274</v>
+        <v>557618.9468579771</v>
       </c>
       <c r="M6" t="n">
-        <v>421940.7994903906</v>
+        <v>422817.93162414</v>
       </c>
       <c r="N6" t="n">
-        <v>556741.8147242274</v>
+        <v>557618.9468579771</v>
       </c>
       <c r="O6" t="n">
-        <v>556741.8147242273</v>
+        <v>557618.9468579771</v>
       </c>
       <c r="P6" t="n">
-        <v>556741.8147242275</v>
+        <v>557618.9468579771</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26764,22 +26764,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5955994643205</v>
+        <v>74.86979402326347</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,10 +27593,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>96.68503059263386</v>
+        <v>144.9597797083347</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>44.10164113864045</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>88.1848623635824</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>128.0571403890127</v>
+        <v>141.7069916148866</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>154.9382140978453</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>36.92265046246098</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>152.7829238717193</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,43 +33259,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875336987</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>241.8130382709604</v>
       </c>
       <c r="L15" t="n">
-        <v>609.76039124675</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35971,19 +35971,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415061</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L35" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221098</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.2256999718747</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221098</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718747</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187472</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
